--- a/data/trans_orig/P1001-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1001-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>72760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57788</v>
+        <v>57514</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90410</v>
+        <v>90929</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1245590353268519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0989273566450888</v>
+        <v>0.0984599271194715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1547740252490442</v>
+        <v>0.1556633657045441</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -765,19 +765,19 @@
         <v>139243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>118220</v>
+        <v>116868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160966</v>
+        <v>161321</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1509685745901227</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1281753818255995</v>
+        <v>0.1267087159827392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1745210048688174</v>
+        <v>0.1749058458148965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -786,19 +786,19 @@
         <v>212003</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184564</v>
+        <v>184796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238331</v>
+        <v>241344</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1407281722379041</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1225136189046862</v>
+        <v>0.1226676586700786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1582042828205395</v>
+        <v>0.160204308010724</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>511381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>493731</v>
+        <v>493212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526353</v>
+        <v>526627</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8754409646731481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8452259747509557</v>
+        <v>0.8443366342954559</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9010726433549111</v>
+        <v>0.9015400728805283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>752</v>
@@ -836,19 +836,19 @@
         <v>783090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>761367</v>
+        <v>761012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>804113</v>
+        <v>805465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8490314254098773</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8254789951311827</v>
+        <v>0.8250941541851037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8718246181744006</v>
+        <v>0.8732912840172609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1255</v>
@@ -857,19 +857,19 @@
         <v>1294471</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1268143</v>
+        <v>1265130</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1321910</v>
+        <v>1321678</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8592718277620959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8417957171794606</v>
+        <v>0.8397956919892761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8774863810953138</v>
+        <v>0.8773323413299214</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>66370</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53176</v>
+        <v>51112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82527</v>
+        <v>83870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06157354564875293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0493336880890289</v>
+        <v>0.04741847261784907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07656281142936452</v>
+        <v>0.07780957319884091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -982,19 +982,19 @@
         <v>79185</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61365</v>
+        <v>62121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95604</v>
+        <v>100087</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07487681957487939</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05802598579968131</v>
+        <v>0.05874146739194709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09040225095871574</v>
+        <v>0.09464117723465605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -1003,19 +1003,19 @@
         <v>145555</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124478</v>
+        <v>123880</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169971</v>
+        <v>171086</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06816177580911721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05829154596748017</v>
+        <v>0.05801159111513061</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07959537496434727</v>
+        <v>0.08011753397989756</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1011524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>995367</v>
+        <v>994024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1024718</v>
+        <v>1026782</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9384264543512471</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9234371885706354</v>
+        <v>0.922190426801159</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9506663119109711</v>
+        <v>0.952581527382151</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>950</v>
@@ -1053,19 +1053,19 @@
         <v>978353</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>961934</v>
+        <v>957451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996173</v>
+        <v>995417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9251231804251207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9095977490412843</v>
+        <v>0.905358822765344</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.941974014200319</v>
+        <v>0.9412585326080529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1939</v>
@@ -1074,19 +1074,19 @@
         <v>1989877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1965461</v>
+        <v>1964346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2010954</v>
+        <v>2011552</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9318382241908828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9204046250356527</v>
+        <v>0.9198824660201024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9417084540325198</v>
+        <v>0.9419884088848693</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>38565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27773</v>
+        <v>27998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53544</v>
+        <v>53255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0343843999591261</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02476174198238859</v>
+        <v>0.02496244304747411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0477393464727412</v>
+        <v>0.04748187214677354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1199,19 +1199,19 @@
         <v>71192</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55748</v>
+        <v>55906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88505</v>
+        <v>90227</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07162559101996223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05608800136844131</v>
+        <v>0.05624691568345433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08904465355824522</v>
+        <v>0.09077760939621121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -1220,19 +1220,19 @@
         <v>109757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91652</v>
+        <v>88470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132887</v>
+        <v>129959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05188139921101011</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0433234567900555</v>
+        <v>0.04181909448701841</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06281466226492467</v>
+        <v>0.06143079884211109</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1083029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1068050</v>
+        <v>1068339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1093821</v>
+        <v>1093596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9656156000408739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9522606535272586</v>
+        <v>0.9525181278532265</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9752382580176111</v>
+        <v>0.9750375569525259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>912</v>
@@ -1270,19 +1270,19 @@
         <v>922748</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>905435</v>
+        <v>903713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>938192</v>
+        <v>938034</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9283744089800378</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9109553464417549</v>
+        <v>0.9092223906037888</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9439119986315588</v>
+        <v>0.9437530843165457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1978</v>
@@ -1291,19 +1291,19 @@
         <v>2005777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1982647</v>
+        <v>1985575</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2023882</v>
+        <v>2027064</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9481186007889899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9371853377350756</v>
+        <v>0.9385692011578889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9566765432099446</v>
+        <v>0.9581809055129815</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14233</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8024</v>
+        <v>8077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22480</v>
+        <v>21796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03182622547524687</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01794329172554888</v>
+        <v>0.01806144157569664</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05026922027411102</v>
+        <v>0.04873926211490237</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12296</v>
+        <v>12802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30586</v>
+        <v>29954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05849019255907741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03604339669059151</v>
+        <v>0.037524486266262</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08965271975268119</v>
+        <v>0.08780217255671399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>34187</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24492</v>
+        <v>24294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47659</v>
+        <v>48233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04336493247926438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03106751866521188</v>
+        <v>0.03081586900925484</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06045379370731124</v>
+        <v>0.06118199095000698</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>432967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424720</v>
+        <v>425404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439176</v>
+        <v>439123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9681737745247532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.949730779725889</v>
+        <v>0.9512607378850977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9820567082744511</v>
+        <v>0.981938558424303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>320</v>
@@ -1487,19 +1487,19 @@
         <v>321204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310572</v>
+        <v>311204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>328862</v>
+        <v>328356</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9415098074409226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9103472802473188</v>
+        <v>0.912197827443286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9639566033094085</v>
+        <v>0.962475513733738</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>741</v>
@@ -1508,19 +1508,19 @@
         <v>754171</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>740699</v>
+        <v>740125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>763866</v>
+        <v>764064</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9566350675207356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9395462062926884</v>
+        <v>0.9388180090499937</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9689324813347882</v>
+        <v>0.9691841309907452</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>191928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>163278</v>
+        <v>167260</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>218572</v>
+        <v>218772</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05940513924071571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05053734545306968</v>
+        <v>0.05177004650399342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06765197786827011</v>
+        <v>0.06771388456484247</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -1633,19 +1633,19 @@
         <v>309574</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>278371</v>
+        <v>278923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>344626</v>
+        <v>341685</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09338679485899561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08397398741573998</v>
+        <v>0.08414036249186825</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1039605310129125</v>
+        <v>0.1030735124433374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>489</v>
@@ -1654,19 +1654,19 @@
         <v>501502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>461766</v>
+        <v>461910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>549566</v>
+        <v>549374</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07661436672602906</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07054386787302207</v>
+        <v>0.07056587961741147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08395704810798406</v>
+        <v>0.08392768043045749</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3038901</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3012257</v>
+        <v>3012057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3067551</v>
+        <v>3063569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9405948607592843</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9323480221317298</v>
+        <v>0.9322861154351576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9494626545469304</v>
+        <v>0.9482299534960066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2934</v>
@@ -1704,19 +1704,19 @@
         <v>3005395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2970343</v>
+        <v>2973284</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3036598</v>
+        <v>3036046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9066132051410044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8960394689870875</v>
+        <v>0.8969264875566626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9160260125842601</v>
+        <v>0.9158596375081318</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5913</v>
@@ -1725,19 +1725,19 @@
         <v>6044296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5996232</v>
+        <v>5996424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6084032</v>
+        <v>6083888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9233856332739709</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9160429518920161</v>
+        <v>0.9160723195695427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.929456132126978</v>
+        <v>0.9294341203825887</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>87149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71080</v>
+        <v>69989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108840</v>
+        <v>105079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08348154241597298</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06808847139574979</v>
+        <v>0.06704361508899601</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1042592649226527</v>
+        <v>0.1006566469229784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -2090,19 +2090,19 @@
         <v>232853</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>205363</v>
+        <v>206644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>260643</v>
+        <v>263901</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.207917749086995</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1833714966139409</v>
+        <v>0.1845150962166086</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2327321519826906</v>
+        <v>0.2356413308078905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>296</v>
@@ -2111,19 +2111,19 @@
         <v>320002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>284407</v>
+        <v>289839</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>352882</v>
+        <v>359045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1478847077283257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1314348615563627</v>
+        <v>0.1339453574074711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1630797982713552</v>
+        <v>0.1659279571271005</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>956786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>935095</v>
+        <v>938856</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>972855</v>
+        <v>973946</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9165184575840271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8957407350773474</v>
+        <v>0.8993433530770214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9319115286042503</v>
+        <v>0.9329563849110039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>817</v>
@@ -2161,19 +2161,19 @@
         <v>887075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>859285</v>
+        <v>856027</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>914565</v>
+        <v>913284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.792082250913005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7672678480173094</v>
+        <v>0.7643586691921094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8166285033860591</v>
+        <v>0.8154849037833913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1713</v>
@@ -2182,19 +2182,19 @@
         <v>1843861</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1810981</v>
+        <v>1804818</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1879456</v>
+        <v>1874024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8521152922716744</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8369202017286448</v>
+        <v>0.8340720428728996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8685651384436376</v>
+        <v>0.8660546425925291</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>69959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54114</v>
+        <v>53931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89183</v>
+        <v>90087</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07166915049033004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05543741834421932</v>
+        <v>0.05524955391117768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09136306862306252</v>
+        <v>0.09228957061502875</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -2307,19 +2307,19 @@
         <v>150238</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>128695</v>
+        <v>128300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175980</v>
+        <v>176675</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.137547132968165</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1178242147168338</v>
+        <v>0.1174623878198267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1611147746621267</v>
+        <v>0.1617511097854127</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -2328,19 +2328,19 @@
         <v>220196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188727</v>
+        <v>191273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252326</v>
+        <v>251809</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1064574405660399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0912431942470842</v>
+        <v>0.09247408778334723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1219910665734567</v>
+        <v>0.1217409470331967</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>906177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>886953</v>
+        <v>886049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922022</v>
+        <v>922205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9283308495096699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9086369313769375</v>
+        <v>0.9077104293849712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9445625816557807</v>
+        <v>0.9447504460888223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>878</v>
@@ -2378,19 +2378,19 @@
         <v>942024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916282</v>
+        <v>915587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>963567</v>
+        <v>963962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.862452867031835</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8388852253378732</v>
+        <v>0.8382488902145874</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8821757852831663</v>
+        <v>0.8825376121801736</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -2399,19 +2399,19 @@
         <v>1848202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1816072</v>
+        <v>1816589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1879671</v>
+        <v>1877125</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8935425594339601</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8780089334265434</v>
+        <v>0.8782590529668034</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9087568057529158</v>
+        <v>0.9075259122166529</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>56549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42534</v>
+        <v>43038</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73515</v>
+        <v>74871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0638884182305412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04805473409747511</v>
+        <v>0.04862426601111184</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08305755911990961</v>
+        <v>0.08458849954737278</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -2524,19 +2524,19 @@
         <v>89911</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73519</v>
+        <v>72764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108512</v>
+        <v>109825</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1026625930904521</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08394508246651285</v>
+        <v>0.08308346174537148</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1239005013314729</v>
+        <v>0.1253997354398813</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -2545,19 +2545,19 @@
         <v>146460</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125314</v>
+        <v>124368</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174290</v>
+        <v>173201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08317290274584635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07116412271554022</v>
+        <v>0.07062702353141613</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09897725716503308</v>
+        <v>0.09835856747860812</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>828566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>811600</v>
+        <v>810244</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>842581</v>
+        <v>842077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9361115817694589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9169424408800902</v>
+        <v>0.9154115004526272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9519452659025248</v>
+        <v>0.9513757339888882</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>737</v>
@@ -2595,19 +2595,19 @@
         <v>785885</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>767284</v>
+        <v>765971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>802277</v>
+        <v>803032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8973374069095479</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8760994986685272</v>
+        <v>0.8746002645601187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9160549175334874</v>
+        <v>0.9169165382546288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1517</v>
@@ -2616,19 +2616,19 @@
         <v>1614451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1586621</v>
+        <v>1587710</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1635597</v>
+        <v>1636543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9168270972541537</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9010227428349668</v>
+        <v>0.9016414325213918</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9288358772844598</v>
+        <v>0.9293729764685839</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>27907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18173</v>
+        <v>16853</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40579</v>
+        <v>40296</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05559595971832735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03620400855521585</v>
+        <v>0.03357314223553509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0808391974576298</v>
+        <v>0.08027590279533814</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -2741,19 +2741,19 @@
         <v>42611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30919</v>
+        <v>30188</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57798</v>
+        <v>56056</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0941180103449126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06829476296195416</v>
+        <v>0.06667812427361329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1276643348680952</v>
+        <v>0.1238161086552496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -2762,19 +2762,19 @@
         <v>70518</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56372</v>
+        <v>55066</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91301</v>
+        <v>90560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07386370999465711</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05904647782089735</v>
+        <v>0.05767843642749785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09563256759867114</v>
+        <v>0.09485686593394696</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>474062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>461390</v>
+        <v>461673</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483796</v>
+        <v>485116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9444040402816727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9191608025423702</v>
+        <v>0.9197240972046619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9637959914447841</v>
+        <v>0.9664268577644649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>372</v>
@@ -2812,19 +2812,19 @@
         <v>410125</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>394938</v>
+        <v>396680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>421817</v>
+        <v>422548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9058819896550874</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8723356651319049</v>
+        <v>0.8761838913447502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9317052370380463</v>
+        <v>0.9333218757263867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>809</v>
@@ -2833,19 +2833,19 @@
         <v>884186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>863403</v>
+        <v>864144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>898332</v>
+        <v>899638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9261362900053429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.904367432401329</v>
+        <v>0.9051431340660533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9409535221791028</v>
+        <v>0.9423215635725022</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>241564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>210992</v>
+        <v>212318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276296</v>
+        <v>278271</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07089908909109739</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06192604334797438</v>
+        <v>0.0623154271774622</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08109279683679808</v>
+        <v>0.08167260647793531</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>478</v>
@@ -2958,19 +2958,19 @@
         <v>515613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>471428</v>
+        <v>473823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>561775</v>
+        <v>558847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1456235661616959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1331447340072437</v>
+        <v>0.1338209607363987</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1586612830607655</v>
+        <v>0.1578340686368232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>697</v>
@@ -2979,19 +2979,19 @@
         <v>757177</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>704775</v>
+        <v>710695</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>816017</v>
+        <v>812063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1089795865145491</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1014375250766319</v>
+        <v>0.102289479617151</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1174484013814028</v>
+        <v>0.1168792500762886</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3165591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3130859</v>
+        <v>3128884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3196163</v>
+        <v>3194837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9291009109089026</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9189072031632018</v>
+        <v>0.9183273935220645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9380739566520255</v>
+        <v>0.9376845728225378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2804</v>
@@ -3029,19 +3029,19 @@
         <v>3025109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2978947</v>
+        <v>2981875</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3069294</v>
+        <v>3066899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8543764338383041</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8413387169392345</v>
+        <v>0.8421659313631769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8668552659927558</v>
+        <v>0.8661790392636014</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5776</v>
@@ -3050,19 +3050,19 @@
         <v>6190699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6131859</v>
+        <v>6135813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6243101</v>
+        <v>6237181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8910204134854509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8825515986185971</v>
+        <v>0.8831207499237115</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8985624749233682</v>
+        <v>0.897710520382849</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>102433</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83451</v>
+        <v>82339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122258</v>
+        <v>122565</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09080954526566543</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07398200548232939</v>
+        <v>0.07299568214519617</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1083852436631927</v>
+        <v>0.1086571633658551</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -3415,19 +3415,19 @@
         <v>215909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>188979</v>
+        <v>188269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242230</v>
+        <v>243472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1714161719647627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1500356076642715</v>
+        <v>0.1494719139333847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1923127280989567</v>
+        <v>0.193298932008004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>289</v>
@@ -3436,19 +3436,19 @@
         <v>318342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286713</v>
+        <v>285098</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>352160</v>
+        <v>353453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1333337246919025</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1200864204820786</v>
+        <v>0.1194096956109229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1474980533704034</v>
+        <v>0.1480395202749097</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1025564</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1005739</v>
+        <v>1005432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1044546</v>
+        <v>1045658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9091904547343346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8916147563368073</v>
+        <v>0.8913428366341449</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9260179945176706</v>
+        <v>0.9270043178548044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>993</v>
@@ -3486,19 +3486,19 @@
         <v>1043652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1017331</v>
+        <v>1016089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1070582</v>
+        <v>1071292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8285838280352372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8076872719010433</v>
+        <v>0.8067010679919959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8499643923357285</v>
+        <v>0.8505280860666152</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1965</v>
@@ -3507,19 +3507,19 @@
         <v>2069216</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2035398</v>
+        <v>2034105</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2100845</v>
+        <v>2102460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8666662753080975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8525019466295969</v>
+        <v>0.8519604797250904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8799135795179215</v>
+        <v>0.8805903043890773</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>45492</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33133</v>
+        <v>33571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61039</v>
+        <v>61051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05005542190790503</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03645695655671751</v>
+        <v>0.03693851512285519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06716240576875741</v>
+        <v>0.0671757931273449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -3632,19 +3632,19 @@
         <v>92237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>73772</v>
+        <v>74043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111328</v>
+        <v>113464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09164317238270263</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07329786883285304</v>
+        <v>0.07356675440737241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1106118262629134</v>
+        <v>0.1127336579158878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -3653,19 +3653,19 @@
         <v>137728</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117287</v>
+        <v>114216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>161797</v>
+        <v>163313</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07190946140312589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06123678792771469</v>
+        <v>0.05963359998302256</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0844762784175894</v>
+        <v>0.08526780357990926</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>863333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>847786</v>
+        <v>847774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>875692</v>
+        <v>875254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.949944578092095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9328375942312426</v>
+        <v>0.9328242068726551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9635430434432825</v>
+        <v>0.9630614848771448</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>868</v>
@@ -3703,19 +3703,19 @@
         <v>914238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>895147</v>
+        <v>893011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>932703</v>
+        <v>932432</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9083568276172974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8893881737370866</v>
+        <v>0.8872663420841127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9267021311671469</v>
+        <v>0.9264332455926275</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1704</v>
@@ -3724,19 +3724,19 @@
         <v>1777572</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1753503</v>
+        <v>1751987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1798013</v>
+        <v>1801084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9280905385968741</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9155237215824106</v>
+        <v>0.9147321964200907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9387632120722853</v>
+        <v>0.9403664000169775</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>31232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22120</v>
+        <v>21672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44550</v>
+        <v>44429</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03791356188358892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02685235513836984</v>
+        <v>0.02630889635076793</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05408179844436391</v>
+        <v>0.05393431270288312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3849,19 +3849,19 @@
         <v>74705</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59971</v>
+        <v>57975</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93133</v>
+        <v>95304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09688615574394079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0777779835927737</v>
+        <v>0.07518858668400004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1207860601984505</v>
+        <v>0.1236012004590194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -3870,19 +3870,19 @@
         <v>105937</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87180</v>
+        <v>88507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>128477</v>
+        <v>129724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06642548715884113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05466454126564498</v>
+        <v>0.05549662034361409</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08055902109895642</v>
+        <v>0.08134092628699353</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>792527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>779209</v>
+        <v>779330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>801639</v>
+        <v>802087</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.962086438116411</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459182015556361</v>
+        <v>0.9460656872971168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9731476448616302</v>
+        <v>0.9736911036492321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -3920,19 +3920,19 @@
         <v>696354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>677926</v>
+        <v>675755</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>711088</v>
+        <v>713084</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9031138442560592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8792139398015495</v>
+        <v>0.8763987995409805</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9222220164072262</v>
+        <v>0.9248114133159996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -3941,19 +3941,19 @@
         <v>1488881</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1466341</v>
+        <v>1465094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1507638</v>
+        <v>1506311</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9335745128411589</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9194409789010436</v>
+        <v>0.9186590737130065</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.945335458734355</v>
+        <v>0.944503379656386</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>23226</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15190</v>
+        <v>14757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35184</v>
+        <v>35771</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04583723928480372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.029978174344492</v>
+        <v>0.02912380374352895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06943791968399653</v>
+        <v>0.07059626817270036</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4066,19 +4066,19 @@
         <v>45529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33325</v>
+        <v>34186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59118</v>
+        <v>60612</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09297356755792605</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06805278100127257</v>
+        <v>0.06981101936713478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1207237927380162</v>
+        <v>0.1237741978911527</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -4087,19 +4087,19 @@
         <v>68755</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52813</v>
+        <v>54381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87752</v>
+        <v>87602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06900321719927799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05300388990772354</v>
+        <v>0.05457746362234164</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08806967023611099</v>
+        <v>0.08791883955622519</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>483475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>471517</v>
+        <v>470930</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491511</v>
+        <v>491944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9541627607151962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305620803160022</v>
+        <v>0.9294037318272995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9700218256555079</v>
+        <v>0.970876196256471</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>413</v>
@@ -4137,19 +4137,19 @@
         <v>444169</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>430580</v>
+        <v>429086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>456373</v>
+        <v>455512</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9070264324420739</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.879276207261984</v>
+        <v>0.8762258021088475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9319472189987275</v>
+        <v>0.9301889806328653</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>863</v>
@@ -4158,19 +4158,19 @@
         <v>927643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>908646</v>
+        <v>908796</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>943585</v>
+        <v>942017</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.930996782800722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.91193032976389</v>
+        <v>0.9120811604437749</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9469961100922774</v>
+        <v>0.9454225363776585</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>202382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175211</v>
+        <v>176173</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>230513</v>
+        <v>233216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06010245885520406</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05203335784836587</v>
+        <v>0.05231892577998693</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06845680888723156</v>
+        <v>0.06925940012843916</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>383</v>
@@ -4283,19 +4283,19 @@
         <v>428379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>389002</v>
+        <v>391258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>471652</v>
+        <v>470118</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1214643432974392</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1102992295063207</v>
+        <v>0.1109388167954899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1337339849561974</v>
+        <v>0.1332991495214728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>574</v>
@@ -4304,19 +4304,19 @@
         <v>630761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>573318</v>
+        <v>580109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>678506</v>
+        <v>680748</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09149327449500796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08316095611078864</v>
+        <v>0.08414599088192021</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09841868352780984</v>
+        <v>0.0987438802563801</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3164900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3136769</v>
+        <v>3134066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3192071</v>
+        <v>3191109</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.939897541144796</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9315431911127684</v>
+        <v>0.930740599871561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9479666421516342</v>
+        <v>0.9476810742200131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2939</v>
@@ -4354,19 +4354,19 @@
         <v>3098413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3055140</v>
+        <v>3056674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3137790</v>
+        <v>3135534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8785356567025607</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8662660150438029</v>
+        <v>0.8667008504785273</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8897007704936793</v>
+        <v>0.8890611832045101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5953</v>
@@ -4375,19 +4375,19 @@
         <v>6263314</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6215569</v>
+        <v>6213327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6320757</v>
+        <v>6313966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.908506725504992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9015813164721903</v>
+        <v>0.90125611974362</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9168390438892117</v>
+        <v>0.9158540091180798</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>73084</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56650</v>
+        <v>58096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89770</v>
+        <v>90414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.146538307006156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1135869214993756</v>
+        <v>0.1164864183831876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1799929461329757</v>
+        <v>0.1812846957026573</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -4740,19 +4740,19 @@
         <v>134338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>116541</v>
+        <v>116826</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152033</v>
+        <v>151668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2156244630475157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1870581791625637</v>
+        <v>0.1875166189256898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2440259308770355</v>
+        <v>0.2434403750251616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>276</v>
@@ -4761,19 +4761,19 @@
         <v>207422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184317</v>
+        <v>181378</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230061</v>
+        <v>231813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1849084108416588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1643104308072635</v>
+        <v>0.161691195577381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2050900372388904</v>
+        <v>0.2066516908322824</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>425655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>408969</v>
+        <v>408325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>442089</v>
+        <v>440643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.853461692993844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8200070538670243</v>
+        <v>0.8187153042973427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8864130785006243</v>
+        <v>0.8835135816168124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>661</v>
@@ -4811,19 +4811,19 @@
         <v>488681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470986</v>
+        <v>471351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>506478</v>
+        <v>506193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7843755369524844</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7559740691229646</v>
+        <v>0.7565596249748384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8129418208374365</v>
+        <v>0.8124833810743101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1039</v>
@@ -4832,19 +4832,19 @@
         <v>914336</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>891697</v>
+        <v>889945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>937441</v>
+        <v>940380</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8150915891583413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7949099627611097</v>
+        <v>0.7933483091677175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8356895691927366</v>
+        <v>0.838308804422619</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>68005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53543</v>
+        <v>53661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85011</v>
+        <v>86399</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07087340250262333</v>
+        <v>0.07087340250262332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05580142026735212</v>
+        <v>0.05592503062514073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08859731206483397</v>
+        <v>0.09004427162690634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>209</v>
@@ -4957,19 +4957,19 @@
         <v>135454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118476</v>
+        <v>116981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155683</v>
+        <v>155471</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.121466325878583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1062417804598467</v>
+        <v>0.1049004188680377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.139605708340364</v>
+        <v>0.1394162634948987</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>284</v>
@@ -4978,19 +4978,19 @@
         <v>203459</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179473</v>
+        <v>178981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>229256</v>
+        <v>229112</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09806754514604138</v>
+        <v>0.09806754514604137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08650613624915188</v>
+        <v>0.08626899164749882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1105016731422773</v>
+        <v>0.1104326265097049</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>891516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>874510</v>
+        <v>873122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905978</v>
+        <v>905860</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9291265974973768</v>
+        <v>0.9291265974973767</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9114026879351661</v>
+        <v>0.9099557283730936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9441985797326479</v>
+        <v>0.9440749693748592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1397</v>
@@ -5028,19 +5028,19 @@
         <v>979705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>959476</v>
+        <v>959688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996683</v>
+        <v>998178</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8785336741214168</v>
+        <v>0.878533674121417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8603942916596358</v>
+        <v>0.8605837365051016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8937582195401533</v>
+        <v>0.8950995811319623</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2231</v>
@@ -5049,19 +5049,19 @@
         <v>1871221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1845424</v>
+        <v>1845568</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1895207</v>
+        <v>1895699</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9019324548539588</v>
+        <v>0.9019324548539587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8894983268577228</v>
+        <v>0.8895673734902948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9134938637508482</v>
+        <v>0.9137310083525011</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>35758</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25485</v>
+        <v>25420</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49139</v>
+        <v>49661</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03416962037876653</v>
+        <v>0.03416962037876652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02435340876659339</v>
+        <v>0.02429099069670643</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04695603367695587</v>
+        <v>0.0474552016651664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -5174,19 +5174,19 @@
         <v>89168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73801</v>
+        <v>74069</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107042</v>
+        <v>105977</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08511325734187174</v>
+        <v>0.08511325734187175</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07044447934751311</v>
+        <v>0.07070058995331248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1021741013018668</v>
+        <v>0.1011573155734337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>169</v>
@@ -5195,19 +5195,19 @@
         <v>124926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105747</v>
+        <v>106521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147315</v>
+        <v>146494</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05965557718122445</v>
+        <v>0.05965557718122447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05049725734837282</v>
+        <v>0.05086661977288812</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07034699445047907</v>
+        <v>0.06995502613615176</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1010721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>997340</v>
+        <v>996818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1020994</v>
+        <v>1021059</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9658303796212334</v>
+        <v>0.9658303796212336</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.953043966323044</v>
+        <v>0.9525447983348335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9756465912334067</v>
+        <v>0.9757090093032934</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1386</v>
@@ -5245,19 +5245,19 @@
         <v>958474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>940600</v>
+        <v>941665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>973841</v>
+        <v>973573</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9148867426581283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8978258986981331</v>
+        <v>0.8988426844265663</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9295555206524867</v>
+        <v>0.9292994100466874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2376</v>
@@ -5266,19 +5266,19 @@
         <v>1969195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1946806</v>
+        <v>1947627</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1988374</v>
+        <v>1987600</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9403444228187754</v>
+        <v>0.9403444228187755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9296530055495206</v>
+        <v>0.9300449738638483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9495027426516268</v>
+        <v>0.9491333802271122</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>31401</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20407</v>
+        <v>20318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47428</v>
+        <v>47894</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03219465295040437</v>
+        <v>0.03219465295040436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02092276635342529</v>
+        <v>0.02083128283191593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04862719698480288</v>
+        <v>0.04910509195341455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -5391,19 +5391,19 @@
         <v>72127</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59154</v>
+        <v>59539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86802</v>
+        <v>88390</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0794828161672851</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06518702935875373</v>
+        <v>0.06561098313422183</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09565529474642719</v>
+        <v>0.09740470073953646</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -5412,19 +5412,19 @@
         <v>103527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86300</v>
+        <v>86637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124475</v>
+        <v>124522</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05498611354115908</v>
+        <v>0.05498611354115907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04583598590707485</v>
+        <v>0.04601493605621226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06611215103736898</v>
+        <v>0.06613693557083267</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>943942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927915</v>
+        <v>927449</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>954936</v>
+        <v>955025</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9678053470495958</v>
+        <v>0.9678053470495956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9513728030151973</v>
+        <v>0.9508949080465855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9790772336465746</v>
+        <v>0.979168717168084</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1208</v>
@@ -5462,19 +5462,19 @@
         <v>835321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>820646</v>
+        <v>819058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>848294</v>
+        <v>847909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9205171838327149</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9043447052535728</v>
+        <v>0.9025952992604636</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9348129706412464</v>
+        <v>0.9343890168657781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2125</v>
@@ -5483,19 +5483,19 @@
         <v>1779264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1758316</v>
+        <v>1758269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1796491</v>
+        <v>1796154</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.945013886458841</v>
+        <v>0.9450138864588409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9338878489626308</v>
+        <v>0.9338630644291672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9541640140929251</v>
+        <v>0.9539850639437876</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>208248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>178224</v>
+        <v>179949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>236099</v>
+        <v>235909</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05983983565831799</v>
+        <v>0.05983983565831797</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05121257037005052</v>
+        <v>0.05170822962276332</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06784280559677699</v>
+        <v>0.06778836929149902</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>648</v>
@@ -5608,19 +5608,19 @@
         <v>431087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>397869</v>
+        <v>398371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>465223</v>
+        <v>467752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1167224099944423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1077282547332229</v>
+        <v>0.1078640795126508</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1259652116895274</v>
+        <v>0.1266499637939262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>868</v>
@@ -5629,19 +5629,19 @@
         <v>639335</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>596676</v>
+        <v>595283</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>686157</v>
+        <v>684293</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08912636952756268</v>
+        <v>0.08912636952756271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08317952507016564</v>
+        <v>0.08298536792214745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09565363597004332</v>
+        <v>0.09539376831668485</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3271835</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3243984</v>
+        <v>3244174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3301859</v>
+        <v>3300134</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9401601643416821</v>
+        <v>0.9401601643416819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9321571944032232</v>
+        <v>0.932211630708501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9487874296299498</v>
+        <v>0.948291770377237</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4652</v>
@@ -5679,19 +5679,19 @@
         <v>3262180</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3228044</v>
+        <v>3225515</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3295398</v>
+        <v>3294896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8832775900055577</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8740347883104725</v>
+        <v>0.8733500362060737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8922717452667772</v>
+        <v>0.892135920487349</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7771</v>
@@ -5700,19 +5700,19 @@
         <v>6534015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6487193</v>
+        <v>6489057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6576674</v>
+        <v>6578067</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9108736304724372</v>
+        <v>0.9108736304724376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9043463640299566</v>
+        <v>0.9046062316833152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9168204749298343</v>
+        <v>0.9170146320778528</v>
       </c>
     </row>
     <row r="18">
